--- a/src/main/resources/example.xlsx
+++ b/src/main/resources/example.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProjects\logistic\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProjects\chkcovid\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30696" windowHeight="13596"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30696" windowHeight="13224"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>ИНН организации</t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>Василий</t>
+  </si>
+  <si>
+    <t>Васильевич</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>23456780</t>
+  </si>
+  <si>
+    <t>11234567890</t>
+  </si>
+  <si>
+    <t>Хэй</t>
+  </si>
+  <si>
+    <t>Родионович</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Давыдоы</t>
+  </si>
+  <si>
+    <t>Пончики</t>
+  </si>
+  <si>
+    <t>Веселый</t>
   </si>
 </sst>
 </file>
@@ -97,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +473,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1234567890</v>
       </c>
       <c r="B2" t="s">
@@ -459,7 +490,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1234567890</v>
       </c>
       <c r="B3" t="s">
@@ -476,7 +507,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1234567890</v>
       </c>
       <c r="B4" t="s">
@@ -487,6 +518,148 @@
       </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
